--- a/Data_frame/balancos_definitivos/PQUN4.xlsx
+++ b/Data_frame/balancos_definitivos/PQUN4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB80"/>
+  <dimension ref="A1:AP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,66 +644,6 @@
           <t>30/09/2008</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -834,42 +774,6 @@
       <c r="AP2" t="n">
         <v>3094455.04</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>5068504.064</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>5241.757</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>5089769.984</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>5311532.032</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>5724443.136</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>5309114.88</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5514597.888</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>5838864.896</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>5731103.744</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>5736124.928</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>5507460.096</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>5764979.2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1000,42 +904,6 @@
       <c r="AP3" t="n">
         <v>562318.0159999999</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>717427.968</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>729.763</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>694827.008</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>758616</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>915025.9840000001</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>855432</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>716830.0159999999</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>927545.024</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>872083.008</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>833020.992</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>740208</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>813417.9840000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1166,42 +1034,6 @@
       <c r="AP4" t="n">
         <v>238076</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>303123.008</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>193.548</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201999.008</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>208200</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>373695.008</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>343401.984</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>151091.008</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>339924</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>261395.008</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>278168</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>143046</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>217046</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1332,42 +1164,6 @@
       <c r="AP5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1498,42 +1294,6 @@
       <c r="AP6" t="n">
         <v>55831</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>201460.992</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>295.148</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>248026</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>263572.992</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>273972</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>242738</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>253664.992</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>289000.992</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>284556</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>257420</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>291120</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301064.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1664,42 +1424,6 @@
       <c r="AP7" t="n">
         <v>150540</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>61134</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>64.956</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>63318</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>74926</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>68626</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>69207</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>82992</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>87592</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>91720</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>79840</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>79672</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81851</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1830,42 +1554,6 @@
       <c r="AP8" t="n">
         <v>0</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1996,42 +1684,6 @@
       <c r="AP9" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>116815</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>134.673</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>135239.008</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>151404.992</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>141635.008</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>137526</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>149436</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>152756</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>180088</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>119846</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>127221</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>132645</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2162,42 +1814,6 @@
       <c r="AP10" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2328,42 +1944,6 @@
       <c r="AP11" t="n">
         <v>117871</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>34895</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41.438</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>46245</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>60512</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>57098</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>62559</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>79646</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>58272</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>54324</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>97747</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>99149</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>80811</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2494,42 +2074,6 @@
       <c r="AP12" t="n">
         <v>66413</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>294728</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>243.543</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>280862.016</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>325596.992</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>285137.984</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>270092.992</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>297736.992</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>293937.984</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>277868.992</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>350220.992</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>317008</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>308910.016</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2660,42 +2204,6 @@
       <c r="AP13" t="n">
         <v>0</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2826,42 +2334,6 @@
       <c r="AP14" t="n">
         <v>0</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2992,42 +2464,6 @@
       <c r="AP15" t="n">
         <v>66413</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3158,42 +2594,6 @@
       <c r="AP16" t="n">
         <v>0</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>7599</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>7835</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>7855</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>7743</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3324,42 +2724,6 @@
       <c r="AP17" t="n">
         <v>0</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3490,42 +2854,6 @@
       <c r="AP18" t="n">
         <v>0</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3656,42 +2984,6 @@
       <c r="AP19" t="n">
         <v>0</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>153995.008</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>125.15</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>116881</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>121964</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>124623</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>118913</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>125636</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>121032</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>114626</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>113988</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>108434</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>114364</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3822,42 +3114,6 @@
       <c r="AP20" t="n">
         <v>0</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3988,42 +3244,6 @@
       <c r="AP21" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>53939</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>60.675</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>105007</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>136594</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>60188</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51991</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>70399</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>72679</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>58339</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>80433</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>66702</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>57463</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4154,42 +3374,6 @@
       <c r="AP22" t="n">
         <v>479</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>113031</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>115.752</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>103022</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>127621</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>343494.016</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>336671.008</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>351921.984</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>375881.984</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>427135.008</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>451784</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>447012.992</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>478844.992</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4320,42 +3504,6 @@
       <c r="AP23" t="n">
         <v>2447153.92</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>3785359.104</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>3986.617</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>3862452.992</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3943322.88</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>4023119.104</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>3708547.072</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4000551.936</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4092718.08</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>4008901.12</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>3960844.032</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>3870251.008</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4028261.12</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4486,42 +3634,6 @@
       <c r="AP24" t="n">
         <v>3678</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>157958</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>166.082</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>148606</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>156375.008</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>157666</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>138372</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>147556.992</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>148782</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>145116</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>140255.008</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>132980</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>135544.992</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4652,42 +3764,6 @@
       <c r="AP25" t="n">
         <v>14413</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4818,42 +3894,6 @@
       <c r="AP26" t="n">
         <v>3094455.04</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>5068504.064</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>5241.757</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>5089769.984</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>5311532.032</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>5724443.136</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>5309114.88</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5514597.888</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5838864.896</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>5731103.744</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>5736124.928</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>5507460.096</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>5764979.2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4984,42 +4024,6 @@
       <c r="AP27" t="n">
         <v>348663.008</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>670387.968</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>593.745</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>596412.992</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>639196.992</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>772164.992</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>710209.9840000001</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>716563.008</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>778864</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>805409.024</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>963004.032</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>727121.024</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>957091.968</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5150,42 +4154,6 @@
       <c r="AP28" t="n">
         <v>0</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>110505</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>128173</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>97161</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>123616</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5316,42 +4284,6 @@
       <c r="AP29" t="n">
         <v>110142</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>85809</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>91.746</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>97128</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>97608</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>159846</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>99334</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>104719</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>117565</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>143142</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>155726</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>154896</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>134536.992</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5482,42 +4414,6 @@
       <c r="AP30" t="n">
         <v>14168</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>32980</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>39.74</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>38344</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>37721</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>44961</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>42734</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>40304</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>44906</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>53689</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>45958</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>46358</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>46288</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5648,42 +4544,6 @@
       <c r="AP31" t="n">
         <v>200920</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>399439.008</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>328.561</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>341344.992</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>347680</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>361260.992</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>345924.992</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>431072.992</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>457808</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>441460</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>448464.992</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>378232</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>454356.992</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5814,42 +4674,6 @@
       <c r="AP32" t="n">
         <v>0</v>
       </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5980,42 +4804,6 @@
       <c r="AP33" t="n">
         <v>0</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>31673</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>53104</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>53104</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>10160</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>136970</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>141330</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6146,42 +4934,6 @@
       <c r="AP34" t="n">
         <v>12122</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>34658</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>36.877</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>41432</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>57944</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>43910</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>39554</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>46566</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>45172</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>46453</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>47712</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>50474</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>56964</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6312,42 +5064,6 @@
       <c r="AP35" t="n">
         <v>11311</v>
       </c>
-      <c r="AQ35" t="n">
-        <v>85829</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>96.821</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>78164</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>98244</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>109083</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>129559</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>93901</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>113413</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6478,42 +5194,6 @@
       <c r="AP36" t="n">
         <v>0</v>
       </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6644,42 +5324,6 @@
       <c r="AP37" t="n">
         <v>1887100.032</v>
       </c>
-      <c r="AQ37" t="n">
-        <v>2530555.904</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>2622.124</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>2534876.928</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2559387.904</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>2597001.984</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>2369328.128</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>2533553.92</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>2680016.896</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>2577182.976</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>2521921.024</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>2501484.032</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>2507241.984</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6810,42 +5454,6 @@
       <c r="AP38" t="n">
         <v>1757561.984</v>
       </c>
-      <c r="AQ38" t="n">
-        <v>2201795.072</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>2293.568</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>2253677.056</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2224218.88</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>2258457.088</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>2108134.016</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>2217108.992</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>2342574.08</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>2261657.088</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>2228494.08</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>2227738.88</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>2220098.048</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6976,42 +5584,6 @@
       <c r="AP39" t="n">
         <v>0</v>
       </c>
-      <c r="AQ39" t="n">
-        <v>1486</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1688</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>252</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7142,42 +5714,6 @@
       <c r="AP40" t="n">
         <v>107503</v>
       </c>
-      <c r="AQ40" t="n">
-        <v>8526</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>8.611000000000001</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>8696</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>8781</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>8716</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>8917</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>9119</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>9320</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>9065</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>9285</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>9506</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>9727</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7308,42 +5844,6 @@
       <c r="AP41" t="n">
         <v>0</v>
       </c>
-      <c r="AQ41" t="n">
-        <v>264964</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>266.817</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>218900.992</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>272936.992</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>280108</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>205964.992</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>258047.008</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>278940.992</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>259494</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>241803.008</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>223832</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>239443.008</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7474,42 +5974,6 @@
       <c r="AP42" t="n">
         <v>0</v>
       </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7640,42 +6104,6 @@
       <c r="AP43" t="n">
         <v>22035</v>
       </c>
-      <c r="AQ43" t="n">
-        <v>53785</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>51.533</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>51915</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>53199</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>49708</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>46301</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>49268</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>49171</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>46942</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>42310</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>40389</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>37951</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7806,42 +6234,6 @@
       <c r="AP44" t="n">
         <v>0</v>
       </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7972,42 +6364,6 @@
       <c r="AP45" t="n">
         <v>0</v>
       </c>
-      <c r="AQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8138,42 +6494,6 @@
       <c r="AP46" t="n">
         <v>0</v>
       </c>
-      <c r="AQ46" t="n">
-        <v>1715</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>1130</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>1473</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>3790</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>4544</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>2781</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>404</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>2686</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>893</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>970</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>1753</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8304,42 +6624,6 @@
       <c r="AP47" t="n">
         <v>858691.968</v>
       </c>
-      <c r="AQ47" t="n">
-        <v>1865844.936</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>2023.84</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>1957350</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>2111473.944</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>2351486.032</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>2225032.96</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>2261700.024</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>2379579.872</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>2345826</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>2250307</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>2277884.912</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>2298892.12</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8470,42 +6754,6 @@
       <c r="AP48" t="n">
         <v>362732</v>
       </c>
-      <c r="AQ48" t="n">
-        <v>126232</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>129.606</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>129606</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>129606</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>336910.016</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>342008</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>351564</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>351564</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>351564</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>351564</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>351670.016</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>351670.016</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8636,42 +6884,6 @@
       <c r="AP49" t="n">
         <v>8318</v>
       </c>
-      <c r="AQ49" t="n">
-        <v>34467</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>34.567</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>34923</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>35375</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>36217</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>36650</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>32051</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>32268</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>32810</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>28460</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>38700</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>39100</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8802,42 +7014,6 @@
       <c r="AP50" t="n">
         <v>199148.992</v>
       </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8968,42 +7144,6 @@
       <c r="AP51" t="n">
         <v>296160</v>
       </c>
-      <c r="AQ51" t="n">
-        <v>974313.9840000001</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>974.314</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>974313.9840000001</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>974313.9840000001</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>1136274.048</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>1136274.048</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>993534.976</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>993534.976</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>1238006.016</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>1107650.944</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>1102697.984</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>1102697.984</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9134,42 +7274,6 @@
       <c r="AP52" t="n">
         <v>-7667</v>
       </c>
-      <c r="AQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>25.028</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>143132.992</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>175506</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>139132</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>153332</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>216764</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>82651</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>192660.992</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>145388</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9300,42 +7404,6 @@
       <c r="AP53" t="n">
         <v>0</v>
       </c>
-      <c r="AQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9466,42 +7534,6 @@
       <c r="AP54" t="n">
         <v>0</v>
       </c>
-      <c r="AQ54" t="n">
-        <v>730832</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>860.325</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>675374.0159999999</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>842084.992</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>731217.9840000001</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>785449.024</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9632,42 +7664,6 @@
       <c r="AP55" t="n">
         <v>0</v>
       </c>
-      <c r="AQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>796673.024</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>570969.024</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>723446.0159999999</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>679980.992</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>592156.032</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>660035.968</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9798,42 +7794,6 @@
       <c r="AP56" t="n">
         <v>0</v>
       </c>
-      <c r="AQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9962,18 +7922,6 @@
       <c r="AP57" t="n">
         <v>780985.024</v>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10102,18 +8050,6 @@
       <c r="AP58" t="n">
         <v>-194615.008</v>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10242,40 +8178,6 @@
       <c r="AP59" t="n">
         <v>586369.9840000001</v>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="n">
-        <v>507.086</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>509998.016</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>543926.0159999999</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>1084283.904</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>529217.9840000001</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>539569.9840000001</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>619078.0159999999</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>584025.9840000001</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>570238.976</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>593534.976</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>618585.024</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10404,40 +8306,6 @@
       <c r="AP60" t="n">
         <v>-540041.9840000001</v>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="n">
-        <v>-273.105</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-278335.008</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-289176</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-597735.872</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-294772.992</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-300355.008</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-328931.008</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-329890.944</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>-319367.008</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-336439.008</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-323849.984</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10566,40 +8434,6 @@
       <c r="AP61" t="n">
         <v>46328</v>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="n">
-        <v>233.981</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>231663.008</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>254750</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>486548.032</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>234444.992</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>239215.008</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>290147.008</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>254135.008</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>250872</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>257096</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>294735.008</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10728,40 +8562,6 @@
       <c r="AP62" t="n">
         <v>-12081</v>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="n">
-        <v>-1.785</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-2286</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-2470</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-7711.215</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-2002</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-2200</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-2750</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-7136</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>-2246</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-2485</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-883</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10890,40 +8690,6 @@
       <c r="AP63" t="n">
         <v>-10756</v>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="n">
-        <v>-82.25700000000001</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-95295</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-98949</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-218131.728</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-95889</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-113023</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-110573</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-120771.992</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-110221</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-113368</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-109569</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11052,40 +8818,6 @@
       <c r="AP64" t="n">
         <v>0</v>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>-1824</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11214,40 +8946,6 @@
       <c r="AP65" t="n">
         <v>377</v>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="n">
-        <v>5.896</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>2728</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>3684</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>8746.103999999999</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>2675</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>16504</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>2877</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>15203</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>2638</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>14084</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>4296</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11376,40 +9074,6 @@
       <c r="AP66" t="n">
         <v>-21358</v>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-1754</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-1795</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>1262.04</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>-3253</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>-157</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-2323</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>-5912</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>-4823</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>-6011</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>-8572</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11538,40 +9202,6 @@
       <c r="AP67" t="n">
         <v>0</v>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="n">
-        <v>-10.24</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>2183</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>-15702</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>-18267.76</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>21417</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>-18242</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>-12860</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>26698</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>12067</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>18319</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>563</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11700,40 +9330,6 @@
       <c r="AP68" t="n">
         <v>-44594</v>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="n">
-        <v>-65.44799999999999</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>9369</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-52843</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-110089.544</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-18710</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>-47993</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-36829</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>-27248</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>-32062</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>-33889</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>-33883</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11862,40 +9458,6 @@
       <c r="AP69" t="n">
         <v>-1839</v>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>48270</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>8775</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>-27420.812</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>24517</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>11309</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>12107</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>2858</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>13320</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>13224</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>9715</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12024,40 +9586,6 @@
       <c r="AP70" t="n">
         <v>-42755</v>
       </c>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="n">
-        <v>-69.26000000000001</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-38901</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-61618</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-82668.736</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-43227</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-59302</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-48936</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-30106.008</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-45382</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-47113</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-43598</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12186,18 +9714,6 @@
       <c r="AP71" t="n">
         <v>2887</v>
       </c>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="inlineStr"/>
-      <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12326,18 +9842,6 @@
       <c r="AP72" t="n">
         <v>2887</v>
       </c>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
-      <c r="AU72" t="inlineStr"/>
-      <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12466,18 +9970,6 @@
       <c r="AP73" t="n">
         <v>0</v>
       </c>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
-      <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12606,40 +10098,6 @@
       <c r="AP74" t="n">
         <v>-39197</v>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="n">
-        <v>79.107</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>146608</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>86675</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>140531.904</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>138683.008</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>74104</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>127689</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>134968</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>116225</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>133746</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>146687.008</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12768,40 +10226,6 @@
       <c r="AP75" t="n">
         <v>18512</v>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="n">
-        <v>-46.376</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>-32444</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-31722</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>-66823.624</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>-29165</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>-31078</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>-43804</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-27040</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>-43432</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>-26791</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-46967</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12930,40 +10354,6 @@
       <c r="AP76" t="n">
         <v>-6045</v>
       </c>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="n">
-        <v>-6.024</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>6398</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-20317</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-5173.976</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>33968</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>-26739</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>-17342</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>4664</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>12495</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>4322</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-4880</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13092,18 +10482,6 @@
       <c r="AP77" t="n">
         <v>0</v>
       </c>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
-      <c r="AV77" t="inlineStr"/>
-      <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13232,18 +10610,6 @@
       <c r="AP78" t="n">
         <v>0</v>
       </c>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13372,40 +10738,6 @@
       <c r="AP79" t="n">
         <v>0</v>
       </c>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="n">
-        <v>-1.679</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>-2457</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>-2263</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>-3973.321</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>-4354</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>-2087</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>-3111</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>-2292</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>-2637</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>-1267</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>-783</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13533,40 +10865,6 @@
       </c>
       <c r="AP80" t="n">
         <v>-26730</v>
-      </c>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="n">
-        <v>25.028</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>118105</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>32373</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>64560.972</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>139132</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>14200</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>63432</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>110300</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>82651</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>110010</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>94057</v>
       </c>
     </row>
   </sheetData>
